--- a/Assets/Data/Skills.xlsx
+++ b/Assets/Data/Skills.xlsx
@@ -2418,9 +2418,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2439,6 +2439,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -2446,32 +2453,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2485,27 +2477,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2521,9 +2499,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2531,29 +2508,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2568,15 +2531,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2597,13 +2597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2615,7 +2609,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2627,13 +2705,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2645,55 +2753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,79 +2771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,6 +2788,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2813,15 +2822,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2856,15 +2856,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2876,6 +2867,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2896,145 +2896,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6152,9 +6152,9 @@
   <dimension ref="A1:W253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/Assets/Data/Skills.xlsx
+++ b/Assets/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -2429,10 +2429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2451,6 +2451,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -2460,21 +2467,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2495,8 +2487,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2510,47 +2510,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2579,6 +2541,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2586,9 +2580,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2609,6 +2609,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2621,25 +2633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2657,7 +2651,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2669,115 +2747,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,6 +2769,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2800,21 +2800,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2833,20 +2818,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2875,6 +2857,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2889,17 +2900,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2908,145 +2908,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6163,10 +6163,10 @@
   <sheetPr/>
   <dimension ref="A1:W255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="$A132:$XFD132"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -6970,11 +6970,11 @@
         <v>バーンストーム</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="str">
         <f>INDEX(Define!B:B,MATCH(H11,Define!A:A))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -8938,11 +8938,11 @@
         <v>元素</v>
       </c>
       <c r="F36">
-        <v>701</v>
+        <v>2403</v>
       </c>
       <c r="G36" t="str">
         <f>INDEX([2]Animations!I:I,MATCH(F36,[2]Animations!A:A))</f>
-        <v>回復単体1</v>
+        <v>ヒーリング</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -25996,7 +25996,7 @@
   <sheetPr/>
   <dimension ref="A1:I326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Skills.xlsx
+++ b/Assets/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -2429,10 +2429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2451,14 +2451,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2473,7 +2480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2487,11 +2494,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2502,25 +2524,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2549,7 +2564,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -2558,9 +2573,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2572,23 +2587,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2609,7 +2609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2621,13 +2621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,13 +2651,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2657,115 +2693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2783,7 +2711,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2803,17 +2803,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2833,11 +2827,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2861,27 +2870,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2900,6 +2889,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2908,16 +2908,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2926,127 +2926,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6164,9 +6164,9 @@
   <dimension ref="A1:W255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -6533,11 +6533,11 @@
         <v>なし</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" t="str">
         <f>INDEX(Define!H:H,MATCH(N5,Define!G:G))</f>
-        <v>魔法</v>
+        <v>神化</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -16542,11 +16542,11 @@
         <v>炎</v>
       </c>
       <c r="N132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O132" t="str">
         <f>INDEX(Define!H:H,MATCH(N132,Define!G:G))</f>
-        <v>覚醒</v>
+        <v>神化</v>
       </c>
       <c r="P132">
         <v>4</v>
@@ -16621,11 +16621,11 @@
         <v>闇</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O133" t="str">
         <f>INDEX(Define!H:H,MATCH(N133,Define!G:G))</f>
-        <v>神化</v>
+        <v>覚醒</v>
       </c>
       <c r="P133">
         <v>1</v>
@@ -25996,8 +25996,8 @@
   <sheetPr/>
   <dimension ref="A1:I326"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -35568,8 +35568,8 @@
   <sheetPr/>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:F84"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>

--- a/Assets/Data/Skills.xlsx
+++ b/Assets/Data/Skills.xlsx
@@ -392,7 +392,8 @@
     <t>ダークネス</t>
   </si>
   <si>
-    <t>\sに/f[f,0,2]ターン命中率/f[f,0,3]%ダウンを付与</t>
+    <t>\sに/f[f,0,1]回有効な暗闇付与
+/s</t>
   </si>
   <si>
     <t>シェイディークラウド</t>
@@ -2429,10 +2430,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2451,16 +2452,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2471,16 +2488,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2494,16 +2510,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2514,28 +2537,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2564,16 +2565,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2581,14 +2581,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2609,6 +2610,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2621,19 +2628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2645,19 +2646,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2675,13 +2706,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,43 +2748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2747,13 +2766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,31 +2790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2805,9 +2806,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2845,8 +2848,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2862,6 +2865,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2889,17 +2901,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2908,145 +2909,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3394,322 +3395,338 @@
         </row>
         <row r="32">
           <cell r="A32">
-            <v>2030</v>
+            <v>2020</v>
           </cell>
           <cell r="B32" t="str">
-            <v>カウンタ</v>
+            <v>暗闇</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>2031</v>
+            <v>2030</v>
           </cell>
           <cell r="B33" t="str">
-            <v>CAダメージ</v>
+            <v>カウンタ</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>2032</v>
+            <v>2031</v>
           </cell>
           <cell r="B34" t="str">
-            <v>CAシェル</v>
+            <v>CAダメージ</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>2040</v>
+            <v>2032</v>
           </cell>
           <cell r="B35" t="str">
-            <v>リジェネ</v>
+            <v>CAシェル</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>2050</v>
+            <v>2040</v>
           </cell>
           <cell r="B36" t="str">
-            <v>攻撃無効</v>
+            <v>リジェネ</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>2060</v>
+            <v>2050</v>
           </cell>
           <cell r="B37" t="str">
-            <v>ドレイン</v>
+            <v>攻撃無効</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>2070</v>
+            <v>2060</v>
           </cell>
           <cell r="B38" t="str">
-            <v>状態異常CA</v>
+            <v>ドレイン</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>2090</v>
+            <v>2070</v>
           </cell>
           <cell r="B39" t="str">
-            <v>パッシブ封じ</v>
+            <v>状態異常CA</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>2120</v>
+            <v>2090</v>
           </cell>
           <cell r="B40" t="str">
-            <v>デバフ強化</v>
+            <v>パッシブ封じ</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>2130</v>
+            <v>2120</v>
           </cell>
           <cell r="B41" t="str">
-            <v>挑発</v>
+            <v>デバフ強化</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>2140</v>
+            <v>2130</v>
           </cell>
           <cell r="B42" t="str">
-            <v>凍結</v>
+            <v>挑発</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>2150</v>
+            <v>2140</v>
           </cell>
           <cell r="B43" t="str">
-            <v>スタン</v>
+            <v>凍結</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>2180</v>
+            <v>2150</v>
           </cell>
           <cell r="B44" t="str">
-            <v>状態異常回避</v>
+            <v>スタン</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>2190</v>
+            <v>2180</v>
           </cell>
           <cell r="B45" t="str">
-            <v>対象範囲延長</v>
+            <v>状態異常回避</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>2210</v>
+            <v>2190</v>
           </cell>
           <cell r="B46" t="str">
-            <v>アフターヒール</v>
+            <v>対象範囲延長</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>2220</v>
+            <v>2210</v>
           </cell>
           <cell r="B47" t="str">
-            <v>即死付与</v>
+            <v>アフターヒール</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>2230</v>
+            <v>2220</v>
           </cell>
           <cell r="B48" t="str">
-            <v>同時回復</v>
+            <v>即死付与</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>2240</v>
+            <v>2230</v>
           </cell>
           <cell r="B49" t="str">
-            <v>必中</v>
+            <v>同時回復</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>2250</v>
+            <v>2240</v>
           </cell>
           <cell r="B50" t="str">
-            <v>アシストヒール</v>
+            <v>必中</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>2270</v>
+            <v>2250</v>
           </cell>
           <cell r="B51" t="str">
-            <v>アンデッド</v>
+            <v>アシストヒール</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>2280</v>
+            <v>2270</v>
           </cell>
           <cell r="B52" t="str">
-            <v>アクセル</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>2290</v>
+            <v>2280</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ダメージ威力アップ</v>
+            <v>アクセル</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>2320</v>
+            <v>2290</v>
           </cell>
           <cell r="B54" t="str">
-            <v>バフ解除</v>
+            <v>ダメージ威力アップ</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>2330</v>
+            <v>2320</v>
           </cell>
           <cell r="B55" t="str">
-            <v>貫通</v>
+            <v>バフ解除</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>2340</v>
+            <v>2330</v>
           </cell>
           <cell r="B56" t="str">
-            <v>対象列化</v>
+            <v>貫通</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>2341</v>
+            <v>2340</v>
           </cell>
           <cell r="B57" t="str">
-            <v>対象全体化</v>
+            <v>対象列化</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>2350</v>
+            <v>2341</v>
           </cell>
           <cell r="B58" t="str">
-            <v>聖棺</v>
+            <v>対象全体化</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>2360</v>
+            <v>2350</v>
           </cell>
           <cell r="B59" t="str">
-            <v>追加ダメージ</v>
+            <v>聖棺</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>2370</v>
+            <v>2360</v>
           </cell>
           <cell r="B60" t="str">
-            <v>追加効果</v>
+            <v>追加ダメージ</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>2380</v>
+            <v>2370</v>
           </cell>
           <cell r="B61" t="str">
-            <v>透明</v>
+            <v>追加効果</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>2390</v>
+            <v>2380</v>
           </cell>
           <cell r="B62" t="str">
-            <v>沈黙</v>
+            <v>透明</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>2400</v>
+            <v>2390</v>
           </cell>
           <cell r="B63" t="str">
-            <v>不治</v>
+            <v>沈黙</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>2410</v>
+            <v>2400</v>
           </cell>
           <cell r="B64" t="str">
-            <v>シールド</v>
+            <v>不治</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>2420</v>
+            <v>2410</v>
           </cell>
           <cell r="B65" t="str">
-            <v>フォロー</v>
+            <v>シールド</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>2430</v>
+            <v>2420</v>
           </cell>
           <cell r="B66" t="str">
-            <v>かばう</v>
+            <v>フォロー</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>2440</v>
+            <v>2430</v>
           </cell>
           <cell r="B67" t="str">
-            <v>Ap消費半減</v>
+            <v>かばう</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>2450</v>
+            <v>2440</v>
           </cell>
           <cell r="B68" t="str">
-            <v>不死</v>
+            <v>Ap消費半減</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>2460</v>
+            <v>2450</v>
           </cell>
           <cell r="B69" t="str">
-            <v>Hp回復効果アップ</v>
+            <v>不死</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>2470</v>
+            <v>2460</v>
           </cell>
           <cell r="B70" t="str">
-            <v>呪詛</v>
+            <v>Hp回復効果アップ</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
+            <v>2470</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>呪詛</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
             <v>3010</v>
           </cell>
-          <cell r="B71" t="str">
+          <cell r="B72" t="str">
             <v>チャージ</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>9999</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>テスト用</v>
           </cell>
         </row>
       </sheetData>
@@ -6164,9 +6181,9 @@
   <dimension ref="A1:W255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N134" sqref="N134"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -13757,11 +13774,11 @@
         <v>自己強化</v>
       </c>
       <c r="F97">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G97" t="str">
         <f>INDEX([2]Animations!I:I,MATCH(F97,[2]Animations!A:A))</f>
-        <v>回復単体1</v>
+        <v>回復単体2</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -25996,8 +26013,8 @@
   <sheetPr/>
   <dimension ref="A1:I326"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -26210,7 +26227,7 @@
       </c>
       <c r="I7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(E7,[1]TextData!A:A))</f>
-        <v>毒</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -26242,7 +26259,7 @@
       </c>
       <c r="I8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(E8,[1]TextData!A:A))</f>
-        <v>毒</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -28037,20 +28054,20 @@
         <v>ステート付与</v>
       </c>
       <c r="E70">
-        <v>1082</v>
+        <v>2020</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H70">
         <v>100</v>
       </c>
       <c r="I70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(E70,[1]TextData!A:A))</f>
-        <v>命中ダウン</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -35568,8 +35585,8 @@
   <sheetPr/>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -39442,8 +39459,8 @@
   <sheetPr/>
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -39976,7 +39993,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" ht="26" spans="1:3">
       <c r="A48">
         <v>5060</v>
       </c>

--- a/Assets/Data/Skills.xlsx
+++ b/Assets/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -2430,9 +2430,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2451,6 +2451,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2459,7 +2528,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2475,82 +2581,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2561,37 +2592,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2610,7 +2610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2628,37 +2634,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2670,13 +2664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2688,7 +2676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2706,19 +2706,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2730,19 +2736,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2754,25 +2766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2784,13 +2784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2804,13 +2804,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2847,32 +2884,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2886,21 +2901,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2909,19 +2909,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2930,124 +2930,124 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6181,9 +6181,9 @@
   <dimension ref="A1:W255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <selection pane="bottomLeft" activeCell="O135" sqref="O135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -10061,11 +10061,11 @@
         <v>理術</v>
       </c>
       <c r="F50">
-        <v>811</v>
+        <v>904</v>
       </c>
       <c r="G50" t="str">
         <f>INDEX([2]Animations!I:I,MATCH(F50,[2]Animations!A:A))</f>
-        <v>デバフ１</v>
+        <v>暗闇</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -13774,11 +13774,11 @@
         <v>自己強化</v>
       </c>
       <c r="F97">
-        <v>702</v>
+        <v>2404</v>
       </c>
       <c r="G97" t="str">
         <f>INDEX([2]Animations!I:I,MATCH(F97,[2]Animations!A:A))</f>
-        <v>回復単体2</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -26013,7 +26013,7 @@
   <sheetPr/>
   <dimension ref="A1:I326"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
@@ -35585,8 +35585,8 @@
   <sheetPr/>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
